--- a/src/main/resources/testData/CustomerSuite.xlsx
+++ b/src/main/resources/testData/CustomerSuite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srg_kosenko/Documents/School projects/Data Driven Project Udemy/TestDataProject/src/main/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C413186-8051-3541-A76F-A786C3130569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3760B5-7299-FD41-B343-A6A8F5DB7087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{ECA211D5-CE7C-3240-89EE-A4C5F2E35CB3}"/>
+    <workbookView xWindow="15280" yWindow="2360" windowWidth="28040" windowHeight="17440" xr2:uid="{ECA211D5-CE7C-3240-89EE-A4C5F2E35CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C08364D-1BE6-7C40-9F9B-7C7B4037F086}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653BD23D-0E9E-7949-B5D7-D5577A4AF277}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
